--- a/Excel/Effect.xlsx
+++ b/Excel/Effect.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\06006854\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a710594\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E2AE0F5-94ED-4567-97A2-AA484CCF1AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9114C1-7687-4205-AAA7-A75F25CC0434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="5140" yWindow="3450" windowWidth="14400" windowHeight="8170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="98">
   <si>
     <t>Type</t>
   </si>
@@ -311,6 +311,10 @@
   </si>
   <si>
     <t>39</t>
+  </si>
+  <si>
+    <t>火焰拳_SubSkill_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -696,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -1958,8 +1962,8 @@
       <c r="J36" t="s">
         <v>16</v>
       </c>
-      <c r="K36" t="s">
-        <v>90</v>
+      <c r="K36">
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.4">
@@ -1970,7 +1974,7 @@
         <v>90</v>
       </c>
       <c r="C37" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D37" t="s">
         <v>34</v>
@@ -2063,8 +2067,8 @@
       <c r="J39" t="s">
         <v>16</v>
       </c>
-      <c r="K39" t="s">
-        <v>96</v>
+      <c r="K39">
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.4">
@@ -2105,8 +2109,9 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:K36 A38:K40 A37:G37 I37:K37" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:K35 A38:K38 A37:B37 I37:K37 A36:J36 D37:G37 A40:K40 A39:J39" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Excel/Effect.xlsx
+++ b/Excel/Effect.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="97">
   <si>
     <t xml:space="preserve">        None = -1,
         Idle = 0,
@@ -323,6 +323,9 @@
   </si>
   <si>
     <t xml:space="preserve">奇蹟之雨_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">信仰之力</t>
   </si>
 </sst>
 </file>
@@ -611,10 +614,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G48" activeCellId="0" sqref="A2:G48"/>
+      <selection pane="topLeft" activeCell="A41" activeCellId="0" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1595,7 +1598,7 @@
         <v>-1</v>
       </c>
       <c r="G43" s="1" t="n">
-        <v>42</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1710,6 +1713,29 @@
         <v>-1</v>
       </c>
       <c r="G48" s="1" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F49" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G49" s="0" t="n">
         <v>-1</v>
       </c>
     </row>
